--- a/pearson_tables/t2m_netherlands-2-2.xlsx
+++ b/pearson_tables/t2m_netherlands-2-2.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6808282846011685</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.6778503283896316</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.6380906239381794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.7347553211747624</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5493481216838868</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.6970178528190709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.7229454564152628</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6985324628213156</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6308831927539387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6170399363436813</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6763722458430187</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7416084225087678</v>
+        <v>-0.7134594315441092</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.8154366963206653</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.3929786456041758</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6656211571405177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.8118383185776754</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.6525838182008921</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6273858180450627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7228847635719762</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5687590483683309</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.6479705341769445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.7172795076412987</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.5986455758870317</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.7054454985115199</v>
+        <v>-0.6775800748059198</v>
       </c>
     </row>
   </sheetData>
